--- a/asset/sample/Food_Menu_Ingredients_Upload.xlsx
+++ b/asset/sample/Food_Menu_Ingredients_Upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Mirin</t>
+  </si>
+  <si>
+    <t>Vegetable Noodles</t>
+  </si>
+  <si>
+    <t>Shrimp Toast</t>
   </si>
   <si>
     <r>
@@ -89,6 +95,7 @@
       <t xml:space="preserve">- Please try to add a food menu from web interface before you do a bulk upload, this will help you to understand how this bulk upload works
 - Write FM in Column A and then write Food Menu name like: Chicken Piccata in Column B
 - Write IG in clumn B that means Ingredient of this food menu. Then place Ingredient Name like: Chicken, Soyabin Oil, Scallions, Lime juice etc in Column B of that food menu and Consumptions of respective ingredients like: 800, 70, 50, 70, 100 etc in Column C, repeat until you complete enlisting all ingredient of that food menu
+-Write IG cost in clumn D
 - You don't need to enter unit in consumption, it is already defined in ingredient profile
 - When all ingredients are listed for a food menu, go for next food menu, write FM in column A, write menu name in column B, then go to next row, write IG in column A, name of ingredient in column B, consumption of that ingredient in column C and continue 
 - Food Menu name and Ingredient Name must match with the previously uploaded or added Food Menu and Ingredient
@@ -97,12 +104,6 @@
 - If any of your row is blank but system is requiring data on that row, please delete those blank rows
 </t>
     </r>
-  </si>
-  <si>
-    <t>Vegetable Noodles</t>
-  </si>
-  <si>
-    <t>Shrimp Toast</t>
   </si>
 </sst>
 </file>
@@ -468,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +496,7 @@
     </row>
     <row r="2" spans="1:7" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -509,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -529,6 +530,9 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -540,13 +544,16 @@
       <c r="C5">
         <v>10</v>
       </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -561,6 +568,9 @@
       </c>
       <c r="C7">
         <v>10</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
